--- a/biology/Botanique/Eriosema_sacleuxii/Eriosema_sacleuxii.xlsx
+++ b/biology/Botanique/Eriosema_sacleuxii/Eriosema_sacleuxii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eriosema sacleuxii est une espèce de plantes de la famille des Fabaceae et du genre Eriosema, présente en Afrique tropicale[2].
-Son épithète spécifique sacleuxii rend hommage au père Charles Sacleux, collecteur de plantes en Afrique orientale[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eriosema sacleuxii est une espèce de plantes de la famille des Fabaceae et du genre Eriosema, présente en Afrique tropicale.
+Son épithète spécifique sacleuxii rend hommage au père Charles Sacleux, collecteur de plantes en Afrique orientale.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante géophyte d'une hauteur de 20-40 cm, avec une touffe de 6 à 10 tiges grêles et de petites fleurs[2],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante géophyte d'une hauteur de 20-40 cm, avec une touffe de 6 à 10 tiges grêles et de petites fleurs,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente en Afrique tropicale, au Bénin, au Burkina Faso, au Tchad, en république centrafricaine[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en Afrique tropicale, au Bénin, au Burkina Faso, au Tchad, en république centrafricaine.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la rencontre dans les rocailles, les savanes boisées[4]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la rencontre dans les rocailles, les savanes boisées. 
 </t>
         </is>
       </c>
